--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -11,12 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>SearchKey</t>
-  </si>
-  <si>
-    <t>Deloitte India</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
@@ -277,10 +289,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>From</t>
   </si>
@@ -29,6 +30,12 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample PDF Text </t>
+  </si>
+  <si>
+    <t>Portable Document Format (PDF) is a file format used to present and exchange documents reliably, independent of software, hardware, or operating system. Invented by Adobe.</t>
   </si>
 </sst>
 </file>
@@ -78,6 +85,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -312,4 +323,32 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij_IDEA\automation_task-main\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA79A6E-167A-479B-B1C6-6E099EC2D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,21 +44,24 @@
     <t xml:space="preserve">Sample PDF Text </t>
   </si>
   <si>
-    <t>Portable Document Format (PDF) is a file format used to present and exchange documents reliably, independent of software, hardware, or operating system. Invented by Adobe.</t>
+    <t>Portable Document Format (PDF) is a file format used to present and
+exchange documents reliably, independent of software, hardware, or
+operating system. Invented by Adobe.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -60,40 +72,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -283,20 +301,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -304,7 +325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -312,7 +333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -321,34 +342,37 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -3,25 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij_IDEA\automation_task-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA79A6E-167A-479B-B1C6-6E099EC2D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C0F1-3179-4618-8198-4B4DD117E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>From</t>
   </si>
@@ -48,11 +49,33 @@
 exchange documents reliably, independent of software, hardware, or
 operating system. Invented by Adobe.</t>
   </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{
+    "name": "Chandrika",
+    "job": "QA"
+}</t>
+  </si>
+  <si>
+    <t>{"name":"Chandrika","job":"QA","id":"795","createdAt":"2024-07-14T13:20:13.111Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Chandrika","job":"QA","id":"384","createdAt":"2024-07-14T13:30:14.155Z"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -87,10 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -353,13 +379,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -375,4 +401,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CEB3E-5ECF-4C83-812C-083DAC76F08C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="26.44140625"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij_IDEA\automation_task-main\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_task-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C0F1-3179-4618-8198-4B4DD117E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F835F-87D7-4E2D-B259-2C038BD7DC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>From</t>
   </si>
@@ -59,16 +59,32 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"737","createdAt":"2024-07-17T17:30:22.554Z"}</t>
+  </si>
+  <si>
     <t>{
-    "name": "Chandrika",
-    "job": "QA"
+"email":"janet.weaver@reqres.in",
+"first_name":"Janet",
+"last_name":"Weaver"
 }</t>
   </si>
   <si>
-    <t>{"name":"Chandrika","job":"QA","id":"795","createdAt":"2024-07-14T13:20:13.111Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Chandrika","job":"QA","id":"384","createdAt":"2024-07-14T13:30:14.155Z"}</t>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"893","createdAt":"2024-07-17T18:11:10.326Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"789","createdAt":"2024-07-17T18:20:20.030Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"961","createdAt":"2024-07-17T18:21:36.539Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"817","createdAt":"2024-07-17T18:36:52.481Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"948","createdAt":"2024-07-17T18:38:33.629Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"973","createdAt":"2024-07-17T18:39:23.581Z"}</t>
   </si>
 </sst>
 </file>
@@ -408,7 +424,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -428,12 +444,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>From</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"973","createdAt":"2024-07-17T18:39:23.581Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"251","createdAt":"2024-07-22T02:13:36.264Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"252","createdAt":"2024-07-22T02:14:42.859Z"}</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_task-main\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaFiles\task_automation_main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F835F-87D7-4E2D-B259-2C038BD7DC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC9B6F9-8C4D-4887-A4D8-269A051910DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>From</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"737","createdAt":"2024-07-17T17:30:22.554Z"}</t>
   </si>
   <si>
     <t>{
@@ -69,28 +66,181 @@
 }</t>
   </si>
   <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"893","createdAt":"2024-07-17T18:11:10.326Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"789","createdAt":"2024-07-17T18:20:20.030Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"961","createdAt":"2024-07-17T18:21:36.539Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"817","createdAt":"2024-07-17T18:36:52.481Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"948","createdAt":"2024-07-17T18:38:33.629Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"973","createdAt":"2024-07-17T18:39:23.581Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"251","createdAt":"2024-07-22T02:13:36.264Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"252","createdAt":"2024-07-22T02:14:42.859Z"}</t>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"95","createdAt":"2024-07-19T11:21:51.330Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"231","createdAt":"2024-07-23T12:09:50.606Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"381","createdAt":"2024-07-23T13:34:01.358Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"919","createdAt":"2024-07-23T13:39:11.914Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"44","createdAt":"2024-07-23T13:43:49.136Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"110","createdAt":"2024-07-23T13:48:50.594Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"176","createdAt":"2024-07-24T02:43:00.073Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"586","createdAt":"2024-07-24T02:57:54.105Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"752","createdAt":"2024-07-24T03:30:53.432Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"526","createdAt":"2024-07-24T04:08:15.840Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"537","createdAt":"2024-07-24T04:15:58.703Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"865","createdAt":"2024-07-24T04:29:02.994Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"670","createdAt":"2024-07-24T06:04:09.999Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"954","createdAt":"2024-07-24T06:14:37.972Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"821","createdAt":"2024-07-24T06:18:18.673Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"199","createdAt":"2024-07-24T06:32:34.215Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"123","createdAt":"2024-07-24T06:35:52.336Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"30","createdAt":"2024-07-24T06:49:05.157Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"360","createdAt":"2024-07-24T06:52:53.079Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"896","createdAt":"2024-07-24T08:01:13.095Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"963","createdAt":"2024-07-24T08:04:54.648Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"912","createdAt":"2024-07-24T08:23:16.607Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"581","createdAt":"2024-07-24T08:24:46.565Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"824","createdAt":"2024-07-24T08:28:02.600Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"898","createdAt":"2024-07-24T08:42:12.847Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"647","createdAt":"2024-07-24T08:46:55.088Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"400","createdAt":"2024-07-24T08:53:02.208Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"282","createdAt":"2024-07-24T08:54:19.194Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"399","createdAt":"2024-07-24T08:56:20.413Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"163","createdAt":"2024-07-24T08:57:22.542Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"255","createdAt":"2024-07-24T09:00:11.930Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"656","createdAt":"2024-07-24T09:04:50.971Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"888","createdAt":"2024-07-24T09:06:13.174Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"188","createdAt":"2024-07-24T09:08:45.169Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"571","createdAt":"2024-07-24T09:15:17.393Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"339","createdAt":"2024-07-24T09:16:31.660Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"215","createdAt":"2024-07-24T09:18:05.870Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"559","createdAt":"2024-07-24T09:19:11.713Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"890","createdAt":"2024-07-24T09:20:46.269Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"248","createdAt":"2024-07-24T09:23:27.526Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"962","createdAt":"2024-07-24T09:26:45.774Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"55","createdAt":"2024-07-24T09:28:25.060Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"114","createdAt":"2024-07-24T09:30:24.782Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"689","createdAt":"2024-07-24T09:31:22.520Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"655","createdAt":"2024-07-24T09:33:03.949Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"789","createdAt":"2024-07-24T09:33:49.853Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"501","createdAt":"2024-07-24T09:41:08.562Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"657","createdAt":"2024-07-24T09:42:15.802Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"759","createdAt":"2024-07-24T09:46:14.263Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"730","createdAt":"2024-07-24T09:47:44.642Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"886","createdAt":"2024-07-24T09:50:10.365Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"956","createdAt":"2024-07-24T09:56:04.896Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"600","createdAt":"2024-07-24T09:59:38.931Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"111","createdAt":"2024-07-24T10:04:06.377Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"761","createdAt":"2024-07-24T10:04:59.933Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"18","createdAt":"2024-07-24T10:13:27.747Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"39","createdAt":"2024-07-24T10:14:36.061Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"100","createdAt":"2024-07-24T10:23:08.156Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"896","createdAt":"2024-07-24T10:24:58.220Z"}</t>
   </si>
 </sst>
 </file>
@@ -452,10 +602,10 @@
     </row>
     <row r="2" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Deloitte.xlsx
+++ b/src/main/resources/Deloitte.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaFiles\task_automation_main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC9B6F9-8C4D-4887-A4D8-269A051910DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD131A-CFD7-4238-B642-342509BD8D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>From</t>
   </si>
@@ -66,181 +67,171 @@
 }</t>
   </si>
   <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"95","createdAt":"2024-07-19T11:21:51.330Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"231","createdAt":"2024-07-23T12:09:50.606Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"381","createdAt":"2024-07-23T13:34:01.358Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"919","createdAt":"2024-07-23T13:39:11.914Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"44","createdAt":"2024-07-23T13:43:49.136Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"110","createdAt":"2024-07-23T13:48:50.594Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"176","createdAt":"2024-07-24T02:43:00.073Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"586","createdAt":"2024-07-24T02:57:54.105Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"752","createdAt":"2024-07-24T03:30:53.432Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"526","createdAt":"2024-07-24T04:08:15.840Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"537","createdAt":"2024-07-24T04:15:58.703Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"865","createdAt":"2024-07-24T04:29:02.994Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"670","createdAt":"2024-07-24T06:04:09.999Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"954","createdAt":"2024-07-24T06:14:37.972Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"821","createdAt":"2024-07-24T06:18:18.673Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"199","createdAt":"2024-07-24T06:32:34.215Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"123","createdAt":"2024-07-24T06:35:52.336Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"30","createdAt":"2024-07-24T06:49:05.157Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"360","createdAt":"2024-07-24T06:52:53.079Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"896","createdAt":"2024-07-24T08:01:13.095Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"963","createdAt":"2024-07-24T08:04:54.648Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"912","createdAt":"2024-07-24T08:23:16.607Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"581","createdAt":"2024-07-24T08:24:46.565Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"824","createdAt":"2024-07-24T08:28:02.600Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"898","createdAt":"2024-07-24T08:42:12.847Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"647","createdAt":"2024-07-24T08:46:55.088Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"400","createdAt":"2024-07-24T08:53:02.208Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"282","createdAt":"2024-07-24T08:54:19.194Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"399","createdAt":"2024-07-24T08:56:20.413Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"163","createdAt":"2024-07-24T08:57:22.542Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"255","createdAt":"2024-07-24T09:00:11.930Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"656","createdAt":"2024-07-24T09:04:50.971Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"888","createdAt":"2024-07-24T09:06:13.174Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"188","createdAt":"2024-07-24T09:08:45.169Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"571","createdAt":"2024-07-24T09:15:17.393Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"339","createdAt":"2024-07-24T09:16:31.660Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"215","createdAt":"2024-07-24T09:18:05.870Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"559","createdAt":"2024-07-24T09:19:11.713Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"890","createdAt":"2024-07-24T09:20:46.269Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"248","createdAt":"2024-07-24T09:23:27.526Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"962","createdAt":"2024-07-24T09:26:45.774Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"55","createdAt":"2024-07-24T09:28:25.060Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"114","createdAt":"2024-07-24T09:30:24.782Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"689","createdAt":"2024-07-24T09:31:22.520Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"655","createdAt":"2024-07-24T09:33:03.949Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"789","createdAt":"2024-07-24T09:33:49.853Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"501","createdAt":"2024-07-24T09:41:08.562Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"657","createdAt":"2024-07-24T09:42:15.802Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"759","createdAt":"2024-07-24T09:46:14.263Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"730","createdAt":"2024-07-24T09:47:44.642Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"886","createdAt":"2024-07-24T09:50:10.365Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"956","createdAt":"2024-07-24T09:56:04.896Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"600","createdAt":"2024-07-24T09:59:38.931Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"111","createdAt":"2024-07-24T10:04:06.377Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"761","createdAt":"2024-07-24T10:04:59.933Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"18","createdAt":"2024-07-24T10:13:27.747Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"39","createdAt":"2024-07-24T10:14:36.061Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"100","createdAt":"2024-07-24T10:23:08.156Z"}</t>
-  </si>
-  <si>
-    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"896","createdAt":"2024-07-24T10:24:58.220Z"}</t>
+    <t>{
+    "email": "peter@klaven"
+}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"741","createdAt":"2024-08-07T13:39:23.666Z"}</t>
+  </si>
+  <si>
+    <t>{
+"id":7287143,
+"name":"Ahalya Kaur",
+"email":"ahalya_kaur@zulauf.example",
+"gender":"male",
+"status":"inactive"
+}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"491","createdAt":"2024-08-07T14:39:14.994Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"425","createdAt":"2024-08-07T15:44:47.107Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"507","createdAt":"2024-08-07T15:49:57.258Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"436","createdAt":"2024-08-07T15:55:37.425Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"471","createdAt":"2024-08-07T16:10:19.487Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"554","createdAt":"2024-08-07T16:25:10.765Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"824","createdAt":"2024-08-07T16:33:08.226Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"366","createdAt":"2024-08-07T16:36:50.112Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"316","createdAt":"2024-08-07T16:48:29.384Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"219","createdAt":"2024-08-07T16:58:29.619Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"667","createdAt":"2024-08-07T17:07:21.125Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"550","createdAt":"2024-08-07T17:10:43.354Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"489","createdAt":"2024-08-07T17:19:31.756Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"377","createdAt":"2024-08-07T17:24:56.008Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"567","createdAt":"2024-08-07T17:30:00.465Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"938","createdAt":"2024-08-07T17:33:52.282Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"361","createdAt":"2024-08-07T17:45:46.360Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"161","createdAt":"2024-08-07T17:47:53.735Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"713","createdAt":"2024-08-07T17:49:57.577Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"142","createdAt":"2024-08-07T17:55:24.257Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"975","createdAt":"2024-08-07T17:56:51.323Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"404","createdAt":"2024-08-07T17:58:36.938Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"972","createdAt":"2024-08-07T18:08:10.320Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"488","createdAt":"2024-08-07T18:11:43.419Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"357","createdAt":"2024-08-07T18:14:13.968Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"733","createdAt":"2024-08-07T18:33:52.738Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"702","createdAt":"2024-08-07T18:38:48.612Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"471","createdAt":"2024-08-07T18:38:52.468Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"926","createdAt":"2024-08-07T18:41:49.015Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"983","createdAt":"2024-08-07T18:41:50.271Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"889","createdAt":"2024-08-07T18:46:03.119Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"397","createdAt":"2024-08-07T18:54:20.697Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"193","createdAt":"2024-08-07T18:58:23.034Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"376","createdAt":"2024-08-07T19:02:12.676Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"573","createdAt":"2024-08-08T02:41:47.406Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"650","createdAt":"2024-08-08T03:07:14.085Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"531","createdAt":"2024-08-08T03:14:26.494Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"53","createdAt":"2024-08-08T03:20:38.679Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"998","createdAt":"2024-08-08T03:22:37.900Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"741","createdAt":"2024-08-08T03:26:28.237Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"981","createdAt":"2024-08-08T03:40:03.761Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"10","createdAt":"2024-08-08T03:46:13.821Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"300","createdAt":"2024-08-08T04:01:48.079Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"590","createdAt":"2024-08-08T04:04:48.115Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"35","createdAt":"2024-08-08T04:08:05.983Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"581","createdAt":"2024-08-08T04:09:42.391Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"546","createdAt":"2024-08-08T04:16:14.391Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"167","createdAt":"2024-08-08T04:17:58.677Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"18","createdAt":"2024-08-08T05:35:32.912Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"680","createdAt":"2024-08-08T05:39:49.980Z"}</t>
   </si>
 </sst>
 </file>
@@ -579,9 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CEB3E-5ECF-4C83-812C-083DAC76F08C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -605,7 +594,37 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BCBBE-31AB-40BC-BC25-5ADF4DDC407B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
